--- a/assets/Term.xlsx
+++ b/assets/Term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D78B1D9-F421-4614-80D0-244CBBA370F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFDBBEA-E1BE-4065-A2C0-C9E813476A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{727673B5-CCBC-4DC3-A8BE-7E7C842A4C70}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +414,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>36473462</v>
+        <v>36473463</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>36473462</v>
+        <v>36473464</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>36473462</v>
+        <v>36473465</v>
       </c>
       <c r="B5">
         <v>1</v>
